--- a/data/distance_angle/56_output_distance_최종.xlsx
+++ b/data/distance_angle/56_output_distance_최종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghrms\PycharmProjects\project\data\distance_angle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D791AC-9AE3-44CC-9309-46D73D8DF7D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2340757C-1016-451D-83ED-47B8A3018820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Contour N.o.</t>
   </si>
@@ -47,14 +47,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>stress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ml</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -440,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -474,12 +466,8 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
@@ -512,15 +500,7 @@
       <c r="J2">
         <v>123</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1219.3</v>
-      </c>
-      <c r="N2" s="3">
-        <v>8.0208020802080199E-2</v>
-      </c>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -553,15 +533,7 @@
       <c r="J3">
         <v>123</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>897.1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>6.3906390639063906E-2</v>
-      </c>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -594,15 +566,8 @@
       <c r="J4">
         <v>123</v>
       </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4" s="3">
-        <v>727.2</v>
-      </c>
-      <c r="N4" s="3">
-        <v>4.9804980498049801E-2</v>
-      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -635,15 +600,7 @@
       <c r="J5">
         <v>123</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>639.9</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4.6104610461046101E-2</v>
-      </c>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -676,15 +633,7 @@
       <c r="J6">
         <v>123</v>
       </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>566.4</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3.8903890389038902E-2</v>
-      </c>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -717,15 +666,7 @@
       <c r="J7">
         <v>123</v>
       </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>514.29999999999995</v>
-      </c>
-      <c r="N7" s="3">
-        <v>3.8903890389038902E-2</v>
-      </c>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -758,15 +699,7 @@
       <c r="J8">
         <v>123</v>
       </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>463.6</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3.47034703470347E-2</v>
-      </c>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -799,15 +732,7 @@
       <c r="J9">
         <v>123</v>
       </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>429.8</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2.92029202920292E-2</v>
-      </c>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -840,15 +765,7 @@
       <c r="J10">
         <v>123</v>
       </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>397</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2.2002200220022E-2</v>
-      </c>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -881,15 +798,7 @@
       <c r="J11">
         <v>123</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>373.4</v>
-      </c>
-      <c r="N11" s="3">
-        <v>2.2202220222022201E-2</v>
-      </c>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -922,15 +831,7 @@
       <c r="J12">
         <v>123</v>
       </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>349.9</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1.66016601660166E-2</v>
-      </c>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -963,15 +864,7 @@
       <c r="J13">
         <v>123</v>
       </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <v>333.2</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.56015601560156E-2</v>
-      </c>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -1004,15 +897,7 @@
       <c r="J14">
         <v>123</v>
       </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>318.39999999999998</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1.73017301730173E-2</v>
-      </c>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -1045,15 +930,7 @@
       <c r="J15">
         <v>123</v>
       </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>305.8</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1.1301130113011299E-2</v>
-      </c>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -1086,15 +963,7 @@
       <c r="J16">
         <v>123</v>
       </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <v>292.5</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1.11011101110111E-2</v>
-      </c>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -1127,15 +996,7 @@
       <c r="J17">
         <v>123</v>
       </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <v>283</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5.0005000500049999E-3</v>
-      </c>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -1168,15 +1029,7 @@
       <c r="J18">
         <v>123</v>
       </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>273.7</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1.92019201920192E-2</v>
-      </c>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -1209,15 +1062,7 @@
       <c r="J19">
         <v>123</v>
       </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>267.10000000000002</v>
-      </c>
-      <c r="N19" s="3">
-        <v>3.3003300330032999E-3</v>
-      </c>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -1250,15 +1095,7 @@
       <c r="J20">
         <v>123</v>
       </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <v>261.10000000000002</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5.0005000500049999E-3</v>
-      </c>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -1291,15 +1128,7 @@
       <c r="J21">
         <v>123</v>
       </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>256.10000000000002</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1.0001000100010001E-3</v>
-      </c>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -6424,5 +6253,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>